--- a/biology/Zoologie/Chèvre_de_Damas/Chèvre_de_Damas.xlsx
+++ b/biology/Zoologie/Chèvre_de_Damas/Chèvre_de_Damas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ch%C3%A8vre_de_Damas</t>
+          <t>Chèvre_de_Damas</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La chèvre de Damas, appelée aussi chèvre d'Alep, ou Chami, est une race de chèvre domestique élevée en Syrie, à Chypre et au Liban. C'est une chèvre productrice laitière.
-Cette race est intéressante par ses qualités génétiques[1],[2],[3]. Elle est à l'origine de races méditerranéennes, comme la rouge méditerranéenne en Sicile.
-Une chèvre de Damas, dénommée Qahr, a gagné le premier prix de « la plus belle chèvre » au concours de Mazayen al-Maaz de Riyad le 13 juin 2008[4].
+Cette race est intéressante par ses qualités génétiques. Elle est à l'origine de races méditerranéennes, comme la rouge méditerranéenne en Sicile.
+Une chèvre de Damas, dénommée Qahr, a gagné le premier prix de « la plus belle chèvre » au concours de Mazayen al-Maaz de Riyad le 13 juin 2008.
 </t>
         </is>
       </c>
